--- a/biology/Médecine/Canal_grand_palatin/Canal_grand_palatin.xlsx
+++ b/biology/Médecine/Canal_grand_palatin/Canal_grand_palatin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le canal grand palatin (ou canal palatin postérieur ou canal palatin descendant ou canal palato-maxillaire[1]) est un canal du palais osseux entre la face médiale de l'os maxillaire et la face latérale de la lame perpendiculaire de l'os palatin. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le canal grand palatin (ou canal palatin postérieur ou canal palatin descendant ou canal palato-maxillaire) est un canal du palais osseux entre la face médiale de l'os maxillaire et la face latérale de la lame perpendiculaire de l'os palatin. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal grand palatin est formé par le sillon grand palatin de l'os palatin (ou gouttière palatine postérieure de l’os palatin) et par le sillon grand palatin de l'os maxillaire. C'est un canal vertical légèrement oblique en avant. 
 Il débouche sur la face inférieure du palais osseux par le foramen grand palatin et fait communiquer la fosse ptérygo-palatine avec la voûte palatine.
